--- a/data/holdings.xlsx
+++ b/data/holdings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="108">
   <si>
     <t>日期</t>
   </si>
@@ -386,11 +386,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.9296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.9296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.9296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.9296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.5390625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>6</v>
@@ -424,63 +424,63 @@
         <v>2231000.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1726000.0</v>
+        <v>527000.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>7.0</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>527000.0</v>
+        <v>1561000.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>6.87</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1561000.0</v>
+        <v>1726000.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>14</v>
@@ -492,12 +492,12 @@
         <v>3738000.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>6.67</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>16</v>
@@ -506,15 +506,15 @@
         <v>17</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1369848.0</v>
+        <v>1400848.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>6.02</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>18</v>
@@ -526,12 +526,12 @@
         <v>1888000.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>20</v>
@@ -543,12 +543,12 @@
         <v>1959000.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>5.42</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>22</v>
@@ -560,46 +560,46 @@
         <v>761000.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>4.68</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>3336000.0</v>
+        <v>536000.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>4.2</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>536000.0</v>
+        <v>3336000.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>28</v>
@@ -611,12 +611,12 @@
         <v>5619000.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>30</v>
@@ -628,12 +628,12 @@
         <v>781000.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>32</v>
@@ -645,12 +645,12 @@
         <v>4575000.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>34</v>
@@ -662,63 +662,63 @@
         <v>1036000.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>3955000.0</v>
+        <v>177000.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>138000.0</v>
+        <v>3955000.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>140000.0</v>
+        <v>8479000.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>42</v>
@@ -730,55 +730,55 @@
         <v>242000.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>930000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>2828000.0</v>
+        <v>930000.0</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>6900000.0</v>
+        <v>2828000.0</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>1.03</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>50</v>
@@ -798,12 +798,12 @@
         <v>495000.0</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>52</v>
@@ -815,12 +815,12 @@
         <v>121000.0</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>54</v>
@@ -832,114 +832,114 @@
         <v>245000.0</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>1129000.0</v>
+        <v>1184000.0</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>1184000.0</v>
+        <v>1001000.0</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>1001000.0</v>
+        <v>3806000.0</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>3806000.0</v>
+        <v>1656000.0</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>1656000.0</v>
+        <v>1511000.0</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>1511000.0</v>
+        <v>331000.0</v>
       </c>
       <c r="E32" t="n" s="0">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>68</v>
@@ -951,21 +951,21 @@
         <v>517000.0</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>469000.0</v>
+        <v>561000.0</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>0.36</v>
@@ -973,24 +973,24 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>126000.0</v>
+        <v>469000.0</v>
       </c>
       <c r="E35" t="n" s="0">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>74</v>
@@ -1002,12 +1002,12 @@
         <v>684000.0</v>
       </c>
       <c r="E36" t="n" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>76</v>
@@ -1019,21 +1019,21 @@
         <v>573000.0</v>
       </c>
       <c r="E37" t="n" s="0">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>93000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>0.08</v>
@@ -1041,16 +1041,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>21000.0</v>
+        <v>93000.0</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>0.08</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>82</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>84</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>86</v>
@@ -1109,13 +1109,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D43" t="n" s="0">
         <v>1000.0</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D44" t="n" s="0">
         <v>1000.0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D45" t="n" s="0">
         <v>1000.0</v>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1000.0</v>
+        <v>1010.0</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>0.0</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>1010.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E47" t="n" s="0">
         <v>0.0</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n" s="0">
         <v>1000.0</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D49" t="n" s="0">
         <v>1000.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>102</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>104</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>6</v>
@@ -2124,63 +2124,63 @@
         <v>2231000.0</v>
       </c>
       <c r="E102" t="n" s="0">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n" s="0">
-        <v>527000.0</v>
+        <v>1726000.0</v>
       </c>
       <c r="E103" t="n" s="0">
-        <v>6.67</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n" s="0">
-        <v>1561000.0</v>
+        <v>527000.0</v>
       </c>
       <c r="E104" t="n" s="0">
-        <v>6.59</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n" s="0">
-        <v>1726000.0</v>
+        <v>1561000.0</v>
       </c>
       <c r="E105" t="n" s="0">
-        <v>6.57</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>14</v>
@@ -2192,12 +2192,12 @@
         <v>3738000.0</v>
       </c>
       <c r="E106" t="n" s="0">
-        <v>6.55</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>16</v>
@@ -2206,15 +2206,15 @@
         <v>17</v>
       </c>
       <c r="D107" t="n" s="0">
-        <v>1400848.0</v>
+        <v>1369848.0</v>
       </c>
       <c r="E107" t="n" s="0">
-        <v>6.25</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>18</v>
@@ -2226,12 +2226,12 @@
         <v>1888000.0</v>
       </c>
       <c r="E108" t="n" s="0">
-        <v>5.36</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>20</v>
@@ -2243,12 +2243,12 @@
         <v>1959000.0</v>
       </c>
       <c r="E109" t="n" s="0">
-        <v>5.06</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>22</v>
@@ -2260,46 +2260,46 @@
         <v>761000.0</v>
       </c>
       <c r="E110" t="n" s="0">
-        <v>4.78</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D111" t="n" s="0">
-        <v>536000.0</v>
+        <v>3336000.0</v>
       </c>
       <c r="E111" t="n" s="0">
-        <v>4.31</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D112" t="n" s="0">
-        <v>3336000.0</v>
+        <v>536000.0</v>
       </c>
       <c r="E112" t="n" s="0">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>28</v>
@@ -2311,12 +2311,12 @@
         <v>5619000.0</v>
       </c>
       <c r="E113" t="n" s="0">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>30</v>
@@ -2328,12 +2328,12 @@
         <v>781000.0</v>
       </c>
       <c r="E114" t="n" s="0">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>32</v>
@@ -2345,12 +2345,12 @@
         <v>4575000.0</v>
       </c>
       <c r="E115" t="n" s="0">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>34</v>
@@ -2362,63 +2362,63 @@
         <v>1036000.0</v>
       </c>
       <c r="E116" t="n" s="0">
-        <v>2.76</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n" s="0">
-        <v>177000.0</v>
+        <v>3955000.0</v>
       </c>
       <c r="E117" t="n" s="0">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D118" t="n" s="0">
-        <v>3955000.0</v>
+        <v>138000.0</v>
       </c>
       <c r="E118" t="n" s="0">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D119" t="n" s="0">
-        <v>8479000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="E119" t="n" s="0">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>42</v>
@@ -2430,55 +2430,55 @@
         <v>242000.0</v>
       </c>
       <c r="E120" t="n" s="0">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D121" t="n" s="0">
-        <v>140000.0</v>
+        <v>930000.0</v>
       </c>
       <c r="E121" t="n" s="0">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D122" t="n" s="0">
-        <v>930000.0</v>
+        <v>2828000.0</v>
       </c>
       <c r="E122" t="n" s="0">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D123" t="n" s="0">
-        <v>2828000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E123" t="n" s="0">
         <v>1.03</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s" s="0">
         <v>50</v>
@@ -2498,12 +2498,12 @@
         <v>495000.0</v>
       </c>
       <c r="E124" t="n" s="0">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s" s="0">
         <v>52</v>
@@ -2515,12 +2515,12 @@
         <v>121000.0</v>
       </c>
       <c r="E125" t="n" s="0">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s" s="0">
         <v>54</v>
@@ -2532,114 +2532,114 @@
         <v>245000.0</v>
       </c>
       <c r="E126" t="n" s="0">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D127" t="n" s="0">
-        <v>1184000.0</v>
+        <v>1129000.0</v>
       </c>
       <c r="E127" t="n" s="0">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D128" t="n" s="0">
-        <v>1001000.0</v>
+        <v>1184000.0</v>
       </c>
       <c r="E128" t="n" s="0">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D129" t="n" s="0">
-        <v>3806000.0</v>
+        <v>1001000.0</v>
       </c>
       <c r="E129" t="n" s="0">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D130" t="n" s="0">
-        <v>1656000.0</v>
+        <v>3806000.0</v>
       </c>
       <c r="E130" t="n" s="0">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D131" t="n" s="0">
-        <v>1511000.0</v>
+        <v>1656000.0</v>
       </c>
       <c r="E131" t="n" s="0">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D132" t="n" s="0">
-        <v>331000.0</v>
+        <v>1511000.0</v>
       </c>
       <c r="E132" t="n" s="0">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s" s="0">
         <v>68</v>
@@ -2651,21 +2651,21 @@
         <v>517000.0</v>
       </c>
       <c r="E133" t="n" s="0">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D134" t="n" s="0">
-        <v>561000.0</v>
+        <v>469000.0</v>
       </c>
       <c r="E134" t="n" s="0">
         <v>0.36</v>
@@ -2673,24 +2673,24 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D135" t="n" s="0">
-        <v>469000.0</v>
+        <v>126000.0</v>
       </c>
       <c r="E135" t="n" s="0">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s" s="0">
         <v>74</v>
@@ -2702,12 +2702,12 @@
         <v>684000.0</v>
       </c>
       <c r="E136" t="n" s="0">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s" s="0">
         <v>76</v>
@@ -2719,21 +2719,21 @@
         <v>573000.0</v>
       </c>
       <c r="E137" t="n" s="0">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D138" t="n" s="0">
-        <v>21000.0</v>
+        <v>93000.0</v>
       </c>
       <c r="E138" t="n" s="0">
         <v>0.08</v>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D139" t="n" s="0">
-        <v>93000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="E139" t="n" s="0">
         <v>0.08</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s" s="0">
         <v>82</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s" s="0">
         <v>84</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s" s="0">
         <v>86</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D143" t="n" s="0">
         <v>1000.0</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D144" t="n" s="0">
         <v>1000.0</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D145" t="n" s="0">
         <v>1000.0</v>
@@ -2860,16 +2860,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D146" t="n" s="0">
-        <v>1010.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E146" t="n" s="0">
         <v>0.0</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D147" t="n" s="0">
-        <v>1000.0</v>
+        <v>1010.0</v>
       </c>
       <c r="E147" t="n" s="0">
         <v>0.0</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D148" t="n" s="0">
         <v>1000.0</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D149" t="n" s="0">
         <v>1000.0</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s" s="0">
         <v>102</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s" s="0">
         <v>104</v>
